--- a/public/test_data.xlsx
+++ b/public/test_data.xlsx
@@ -858,7 +858,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -896,76 +896,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1270,7 +1200,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,7 +1726,7 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>2</v>
